--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H2">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>1.925872</v>
       </c>
       <c r="O2">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P2">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q2">
-        <v>2.562607652384</v>
+        <v>2.285817048828445</v>
       </c>
       <c r="R2">
-        <v>23.063468871456</v>
+        <v>20.572353439456</v>
       </c>
       <c r="S2">
-        <v>0.1661157385386229</v>
+        <v>0.1868805050982985</v>
       </c>
       <c r="T2">
-        <v>0.1661157385386229</v>
+        <v>0.1868805050982985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H3">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I3">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J3">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N3">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O3">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P3">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q3">
-        <v>1.559596764382</v>
+        <v>0.7919838016175555</v>
       </c>
       <c r="R3">
-        <v>14.036370879438</v>
+        <v>7.127854214557999</v>
       </c>
       <c r="S3">
-        <v>0.1010976331459659</v>
+        <v>0.06474985955320327</v>
       </c>
       <c r="T3">
-        <v>0.1010976331459659</v>
+        <v>0.06474985955320327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>9.14021</v>
       </c>
       <c r="I4">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J4">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>1.925872</v>
       </c>
       <c r="O4">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P4">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q4">
         <v>1.955874945902222</v>
@@ -697,10 +697,10 @@
         <v>17.60287451312</v>
       </c>
       <c r="S4">
-        <v>0.1267855462873842</v>
+        <v>0.159905578614287</v>
       </c>
       <c r="T4">
-        <v>0.1267855462873842</v>
+        <v>0.1599055786142871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>9.14021</v>
       </c>
       <c r="I5">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J5">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N5">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O5">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P5">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q5">
-        <v>1.190340719667778</v>
+        <v>0.6776663407677777</v>
       </c>
       <c r="R5">
-        <v>10.71306647701</v>
+        <v>6.098997066909999</v>
       </c>
       <c r="S5">
-        <v>0.07716137410900806</v>
+        <v>0.05540365888674528</v>
       </c>
       <c r="T5">
-        <v>0.07716137410900804</v>
+        <v>0.05540365888674528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H6">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I6">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J6">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>1.925872</v>
       </c>
       <c r="O6">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P6">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q6">
-        <v>2.929330058766222</v>
+        <v>3.103992954076444</v>
       </c>
       <c r="R6">
-        <v>26.363970528896</v>
+        <v>27.935936586688</v>
       </c>
       <c r="S6">
-        <v>0.1898877597132928</v>
+        <v>0.2537717405584463</v>
       </c>
       <c r="T6">
-        <v>0.1898877597132928</v>
+        <v>0.2537717405584464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H7">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I7">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J7">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N7">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O7">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P7">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q7">
-        <v>1.782783126089778</v>
+        <v>1.075463209631556</v>
       </c>
       <c r="R7">
-        <v>16.045048134808</v>
+        <v>9.679168886684</v>
       </c>
       <c r="S7">
-        <v>0.1155652272282457</v>
+        <v>0.08792615661589918</v>
       </c>
       <c r="T7">
-        <v>0.1155652272282457</v>
+        <v>0.0879261566158992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H8">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I8">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J8">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>1.925872</v>
       </c>
       <c r="O8">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P8">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q8">
-        <v>2.142304919132445</v>
+        <v>1.738342139872</v>
       </c>
       <c r="R8">
-        <v>19.280744272192</v>
+        <v>15.645079258848</v>
       </c>
       <c r="S8">
-        <v>0.1388704835426303</v>
+        <v>0.1421208479040083</v>
       </c>
       <c r="T8">
-        <v>0.1388704835426303</v>
+        <v>0.1421208479040083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H9">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I9">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J9">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N9">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O9">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P9">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q9">
-        <v>1.303801546479556</v>
+        <v>0.6022961536460001</v>
       </c>
       <c r="R9">
-        <v>11.734213918316</v>
+        <v>5.420665382814001</v>
       </c>
       <c r="S9">
-        <v>0.08451623743485011</v>
+        <v>0.04924165276911211</v>
       </c>
       <c r="T9">
-        <v>0.08451623743485009</v>
+        <v>0.04924165276911211</v>
       </c>
     </row>
   </sheetData>
